--- a/To-Be Process/Decicion Table_v1-4_Application Assessment.xlsx
+++ b/To-Be Process/Decicion Table_v1-4_Application Assessment.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22056" windowHeight="9360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22056" windowHeight="9360" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Truth Table" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="36">
   <si>
     <t>Do you received a repudiation from an other private insurance?</t>
   </si>
@@ -115,6 +116,24 @@
   <si>
     <t>Reject/Offer Alternative</t>
   </si>
+  <si>
+    <t>Repudiation</t>
+  </si>
+  <si>
+    <t>Cancellation</t>
+  </si>
+  <si>
+    <t>Unable to Work</t>
+  </si>
+  <si>
+    <t>Cancer</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>HIV</t>
+  </si>
 </sst>
 </file>
 
@@ -154,7 +173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -162,6 +181,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -180,7 +203,7 @@
 </file>
 
 <file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D124-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D118-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX10.xml><?xml version="1.0" encoding="utf-8"?>
@@ -188,7 +211,7 @@
 </file>
 
 <file path=xl/activeX/activeX11.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D118-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D124-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX12.xml><?xml version="1.0" encoding="utf-8"?>
@@ -196,11 +219,11 @@
 </file>
 
 <file path=xl/activeX/activeX13.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D124-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D118-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX14.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D118-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D124-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX15.xml><?xml version="1.0" encoding="utf-8"?>
@@ -208,11 +231,11 @@
 </file>
 
 <file path=xl/activeX/activeX16.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D124-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D118-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX17.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D118-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D124-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX18.xml><?xml version="1.0" encoding="utf-8"?>
@@ -220,7 +243,7 @@
 </file>
 
 <file path=xl/activeX/activeX19.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D124-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D118-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -228,7 +251,7 @@
 </file>
 
 <file path=xl/activeX/activeX20.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D118-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D124-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX21.xml><?xml version="1.0" encoding="utf-8"?>
@@ -236,11 +259,11 @@
 </file>
 
 <file path=xl/activeX/activeX22.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D124-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D118-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX23.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D118-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D124-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX24.xml><?xml version="1.0" encoding="utf-8"?>
@@ -248,7 +271,7 @@
 </file>
 
 <file path=xl/activeX/activeX25.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D124-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D118-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX26.xml><?xml version="1.0" encoding="utf-8"?>
@@ -272,11 +295,11 @@
 </file>
 
 <file path=xl/activeX/activeX30.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D124-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX31.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D118-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX32.xml><?xml version="1.0" encoding="utf-8"?>
@@ -292,7 +315,7 @@
 </file>
 
 <file path=xl/activeX/activeX35.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D118-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D124-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -300,11 +323,11 @@
 </file>
 
 <file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D118-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX6.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D124-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX7.xml><?xml version="1.0" encoding="utf-8"?>
@@ -344,7 +367,7 @@
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{959A29E9-A88B-497C-A46E-8494FFFE323A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -394,7 +417,7 @@
                   <a14:compatExt spid="_x0000_s1026"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63C0119E-C7AA-413B-9E68-2C6872DDE7FA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -444,7 +467,7 @@
                   <a14:compatExt spid="_x0000_s1027"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3484FC29-0DE6-40B8-9978-CD9D02CAD253}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -494,7 +517,7 @@
                   <a14:compatExt spid="_x0000_s1028"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D151350-75CD-4E99-ACD8-A6D16B690718}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -544,7 +567,7 @@
                   <a14:compatExt spid="_x0000_s1029"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13A594CE-D9DB-4900-89E2-3B3C87CE8C1A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -594,7 +617,7 @@
                   <a14:compatExt spid="_x0000_s1030"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EBDC2D3-4F7F-44B1-BD7C-00EDD3E16688}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -644,7 +667,7 @@
                   <a14:compatExt spid="_x0000_s1031"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{226A7533-BE5A-4F0A-AC63-71FAC8A9BE7A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -694,7 +717,7 @@
                   <a14:compatExt spid="_x0000_s1032"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBD1FDCA-C3B0-45F2-B28F-4FAC81146FF0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -744,7 +767,7 @@
                   <a14:compatExt spid="_x0000_s1033"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EACF3715-3313-41A5-8F2A-365A177F7CB1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -794,7 +817,7 @@
                   <a14:compatExt spid="_x0000_s1034"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FA16DA0-9989-4EED-B3BA-9589040B2126}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -844,7 +867,7 @@
                   <a14:compatExt spid="_x0000_s1035"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6714FD5-58B0-4A0D-9C97-10D96E968506}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -894,7 +917,7 @@
                   <a14:compatExt spid="_x0000_s1036"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DCADEFF-ED32-4843-AB6C-B0F9591D1F65}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -944,7 +967,7 @@
                   <a14:compatExt spid="_x0000_s1037"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B30984AA-1148-4600-BDB9-425CFB0DC3E8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -994,7 +1017,7 @@
                   <a14:compatExt spid="_x0000_s1038"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A367551-1861-4638-B445-ACFC3B27DAC4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1044,7 +1067,7 @@
                   <a14:compatExt spid="_x0000_s1039"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5820F598-2E74-4862-BB14-9E3AA19BD189}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1094,7 +1117,7 @@
                   <a14:compatExt spid="_x0000_s1040"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B155121-CDE3-40BB-B87E-CED808DA1D23}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1144,7 +1167,7 @@
                   <a14:compatExt spid="_x0000_s1041"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{382A36DE-B159-4B58-B04D-7BFE66605258}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1194,7 +1217,7 @@
                   <a14:compatExt spid="_x0000_s1042"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D0F7F3A-2D97-48B1-9BFA-33062ACB5EC9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1244,7 +1267,7 @@
                   <a14:compatExt spid="_x0000_s1043"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1A1BC27-0A49-4878-B0C6-B0BED1D28B45}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1294,7 +1317,7 @@
                   <a14:compatExt spid="_x0000_s1044"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D6A4950-6177-4F4F-87A6-E90EEE923FCE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1344,7 +1367,7 @@
                   <a14:compatExt spid="_x0000_s1045"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9244E70D-5E9E-4C4C-9C0B-A9F4AE28B36A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1394,7 +1417,7 @@
                   <a14:compatExt spid="_x0000_s1046"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55B1DD17-5CD6-41AB-ADB5-FA1637E336FC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1432,7 +1455,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>731520</xdr:colOff>
+          <xdr:colOff>678180</xdr:colOff>
           <xdr:row>53</xdr:row>
           <xdr:rowOff>144780</xdr:rowOff>
         </xdr:to>
@@ -1444,7 +1467,7 @@
                   <a14:compatExt spid="_x0000_s1047"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB3EE4FF-550D-4E8C-8CAE-A0AC13CAF383}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1494,7 +1517,7 @@
                   <a14:compatExt spid="_x0000_s1048"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FAFBFD0-3FEF-4972-BAA0-2A20CB74CD52}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1544,7 +1567,7 @@
                   <a14:compatExt spid="_x0000_s1049"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5BA9603-53E8-4331-BC7D-A343186190F1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1594,7 +1617,7 @@
                   <a14:compatExt spid="_x0000_s1050"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91D43E6A-114F-4A69-9F21-DDCEAF0ADD05}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1644,7 +1667,7 @@
                   <a14:compatExt spid="_x0000_s1051"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F0A8C78-9049-4B23-ABB0-5CBE67DE69EC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1694,7 +1717,7 @@
                   <a14:compatExt spid="_x0000_s1052"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF9E44E5-F89F-4690-ABF8-5A9303F5A697}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1744,7 +1767,7 @@
                   <a14:compatExt spid="_x0000_s1053"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{840EABA9-9F4B-4EBB-9542-163A012E82E6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1794,7 +1817,7 @@
                   <a14:compatExt spid="_x0000_s1054"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCC7DB5C-8950-444B-9C4B-C4257760ECDC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1844,7 +1867,7 @@
                   <a14:compatExt spid="_x0000_s1055"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DCE507E-F108-418B-AFDE-1F00AEEE6043}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1894,7 +1917,7 @@
                   <a14:compatExt spid="_x0000_s1056"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD928854-1732-43D8-B466-B14A926DE6C0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1944,7 +1967,7 @@
                   <a14:compatExt spid="_x0000_s1057"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E441589-666E-47DA-AD67-EEAB1895A6D6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1994,7 +2017,7 @@
                   <a14:compatExt spid="_x0000_s1058"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8D0E7EA-E870-40B4-B93B-DF342D7BC2B0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2044,7 +2067,7 @@
                   <a14:compatExt spid="_x0000_s1059"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9A9687A-B8D6-423F-A6B8-0DA18B2C2E0F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2374,8 +2397,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:B77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="F76" sqref="F76"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2755,8 +2778,858 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1059" r:id="rId4" name="Control 35">
+        <control shapeId="1025" r:id="rId4" name="Control 1">
           <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1025" r:id="rId4" name="Control 1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1026" r:id="rId6" name="Control 2">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1026" r:id="rId6" name="Control 2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1027" r:id="rId8" name="Control 3">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1027" r:id="rId8" name="Control 3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1028" r:id="rId9" name="Control 4">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1028" r:id="rId9" name="Control 4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1029" r:id="rId10" name="Control 5">
+          <controlPr defaultSize="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>60960</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>53340</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1029" r:id="rId10" name="Control 5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1030" r:id="rId12" name="Control 6">
+          <controlPr defaultSize="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>60960</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>53340</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1030" r:id="rId12" name="Control 6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1031" r:id="rId13" name="Control 7">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1031" r:id="rId13" name="Control 7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1032" r:id="rId14" name="Control 8">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1032" r:id="rId14" name="Control 8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1033" r:id="rId15" name="Control 9">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1033" r:id="rId15" name="Control 9"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1034" r:id="rId16" name="Control 10">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>19</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1034" r:id="rId16" name="Control 10"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1035" r:id="rId17" name="Control 11">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>731520</xdr:colOff>
+                <xdr:row>23</xdr:row>
+                <xdr:rowOff>495300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1035" r:id="rId17" name="Control 11"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1036" r:id="rId19" name="Control 12">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>24</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>25</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1036" r:id="rId19" name="Control 12"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1037" r:id="rId20" name="Control 13">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>25</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>26</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1037" r:id="rId20" name="Control 13"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1038" r:id="rId21" name="Control 14">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>28</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>731520</xdr:colOff>
+                <xdr:row>30</xdr:row>
+                <xdr:rowOff>495300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1038" r:id="rId21" name="Control 14"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1039" r:id="rId22" name="Control 15">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>31</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>32</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1039" r:id="rId22" name="Control 15"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1040" r:id="rId23" name="Control 16">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>32</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>33</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1040" r:id="rId23" name="Control 16"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1041" r:id="rId24" name="Control 17">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>35</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>731520</xdr:colOff>
+                <xdr:row>37</xdr:row>
+                <xdr:rowOff>495300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1041" r:id="rId24" name="Control 17"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1042" r:id="rId25" name="Control 18">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>38</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>39</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1042" r:id="rId25" name="Control 18"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1043" r:id="rId26" name="Control 19">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>39</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>40</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1043" r:id="rId26" name="Control 19"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1044" r:id="rId27" name="Control 20">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>42</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>731520</xdr:colOff>
+                <xdr:row>44</xdr:row>
+                <xdr:rowOff>495300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1044" r:id="rId27" name="Control 20"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1045" r:id="rId28" name="Control 21">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>45</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>46</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1045" r:id="rId28" name="Control 21"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1046" r:id="rId29" name="Control 22">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>46</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>47</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1046" r:id="rId29" name="Control 22"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1047" r:id="rId30" name="Control 23">
+          <controlPr defaultSize="0" r:id="rId31">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>49</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>678180</xdr:colOff>
+                <xdr:row>53</xdr:row>
+                <xdr:rowOff>144780</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1047" r:id="rId30" name="Control 23"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1048" r:id="rId32" name="Control 24">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>55</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>56</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1048" r:id="rId32" name="Control 24"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1049" r:id="rId33" name="Control 25">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>56</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>57</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1049" r:id="rId33" name="Control 25"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1050" r:id="rId34" name="Control 26">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>59</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>60</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1050" r:id="rId34" name="Control 26"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1051" r:id="rId35" name="Control 27">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>60</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>61</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1051" r:id="rId35" name="Control 27"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1052" r:id="rId36" name="Control 28">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>61</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>62</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1052" r:id="rId36" name="Control 28"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1053" r:id="rId37" name="Control 29">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>62</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>63</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1053" r:id="rId37" name="Control 29"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1054" r:id="rId38" name="Control 30">
+          <controlPr defaultSize="0" r:id="rId39">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>65</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>731520</xdr:colOff>
+                <xdr:row>67</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1054" r:id="rId38" name="Control 30"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1055" r:id="rId40" name="Control 31">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>68</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>69</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1055" r:id="rId40" name="Control 31"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1056" r:id="rId41" name="Control 32">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>69</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>70</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1056" r:id="rId41" name="Control 32"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1057" r:id="rId42" name="Control 33">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>72</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>73</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1057" r:id="rId42" name="Control 33"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1058" r:id="rId43" name="Control 34">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>73</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>74</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1058" r:id="rId43" name="Control 34"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1059" r:id="rId44" name="Control 35">
+          <controlPr defaultSize="0" r:id="rId18">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -2775,859 +3648,839 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1059" r:id="rId4" name="Control 35"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1058" r:id="rId6" name="Control 34">
-          <controlPr defaultSize="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>73</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>74</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1058" r:id="rId6" name="Control 34"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1057" r:id="rId8" name="Control 33">
-          <controlPr defaultSize="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>72</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>73</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1057" r:id="rId8" name="Control 33"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1056" r:id="rId10" name="Control 32">
-          <controlPr defaultSize="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>69</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>70</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1056" r:id="rId10" name="Control 32"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1055" r:id="rId11" name="Control 31">
-          <controlPr defaultSize="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>68</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>69</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1055" r:id="rId11" name="Control 31"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1054" r:id="rId12" name="Control 30">
-          <controlPr defaultSize="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>65</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>731520</xdr:colOff>
-                <xdr:row>67</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1054" r:id="rId12" name="Control 30"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1053" r:id="rId14" name="Control 29">
-          <controlPr defaultSize="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>62</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>63</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1053" r:id="rId14" name="Control 29"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1052" r:id="rId15" name="Control 28">
-          <controlPr defaultSize="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>61</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>62</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1052" r:id="rId15" name="Control 28"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1051" r:id="rId16" name="Control 27">
-          <controlPr defaultSize="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>60</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>61</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1051" r:id="rId16" name="Control 27"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1050" r:id="rId17" name="Control 26">
-          <controlPr defaultSize="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>59</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>60</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1050" r:id="rId17" name="Control 26"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1049" r:id="rId18" name="Control 25">
-          <controlPr defaultSize="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>56</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>57</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1049" r:id="rId18" name="Control 25"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1048" r:id="rId19" name="Control 24">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>55</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>57</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1048" r:id="rId19" name="Control 24"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1047" r:id="rId20" name="Control 23">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>49</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>731520</xdr:colOff>
-                <xdr:row>53</xdr:row>
-                <xdr:rowOff>144780</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1047" r:id="rId20" name="Control 23"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1046" r:id="rId21" name="Control 22">
-          <controlPr defaultSize="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>46</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>47</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1046" r:id="rId21" name="Control 22"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1045" r:id="rId22" name="Control 21">
-          <controlPr defaultSize="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>45</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>46</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1045" r:id="rId22" name="Control 21"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1044" r:id="rId23" name="Control 20">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>42</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>731520</xdr:colOff>
-                <xdr:row>44</xdr:row>
-                <xdr:rowOff>495300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1044" r:id="rId23" name="Control 20"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1043" r:id="rId24" name="Control 19">
-          <controlPr defaultSize="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>39</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>40</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1043" r:id="rId24" name="Control 19"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1042" r:id="rId25" name="Control 18">
-          <controlPr defaultSize="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>38</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>39</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1042" r:id="rId25" name="Control 18"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1041" r:id="rId26" name="Control 17">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>35</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>731520</xdr:colOff>
-                <xdr:row>37</xdr:row>
-                <xdr:rowOff>495300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1041" r:id="rId26" name="Control 17"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1040" r:id="rId27" name="Control 16">
-          <controlPr defaultSize="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>32</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>33</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1040" r:id="rId27" name="Control 16"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1039" r:id="rId28" name="Control 15">
-          <controlPr defaultSize="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>31</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>32</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1039" r:id="rId28" name="Control 15"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1038" r:id="rId29" name="Control 14">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>28</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>731520</xdr:colOff>
-                <xdr:row>30</xdr:row>
-                <xdr:rowOff>495300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1038" r:id="rId29" name="Control 14"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1037" r:id="rId30" name="Control 13">
-          <controlPr defaultSize="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>25</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>26</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1037" r:id="rId30" name="Control 13"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1036" r:id="rId31" name="Control 12">
-          <controlPr defaultSize="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>24</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>25</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1036" r:id="rId31" name="Control 12"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1035" r:id="rId32" name="Control 11">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>731520</xdr:colOff>
-                <xdr:row>23</xdr:row>
-                <xdr:rowOff>495300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1035" r:id="rId32" name="Control 11"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1034" r:id="rId33" name="Control 10">
-          <controlPr defaultSize="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>19</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1034" r:id="rId33" name="Control 10"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1033" r:id="rId34" name="Control 9">
-          <controlPr defaultSize="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1033" r:id="rId34" name="Control 9"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1032" r:id="rId35" name="Control 8">
-          <controlPr defaultSize="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1032" r:id="rId35" name="Control 8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1031" r:id="rId36" name="Control 7">
-          <controlPr defaultSize="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1031" r:id="rId36" name="Control 7"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1030" r:id="rId37" name="Control 6">
-          <controlPr defaultSize="0" r:id="rId38">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>60960</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>53340</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1030" r:id="rId37" name="Control 6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1029" r:id="rId39" name="Control 5">
-          <controlPr defaultSize="0" r:id="rId38">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>60960</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>53340</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1029" r:id="rId39" name="Control 5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId40" name="Control 4">
-          <controlPr defaultSize="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1028" r:id="rId40" name="Control 4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1027" r:id="rId41" name="Control 3">
-          <controlPr defaultSize="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1027" r:id="rId41" name="Control 3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId42" name="Control 2">
-          <controlPr defaultSize="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1026" r:id="rId42" name="Control 2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId43" name="Control 1">
-          <controlPr defaultSize="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1025" r:id="rId43" name="Control 1"/>
+        <control shapeId="1059" r:id="rId44" name="Control 35"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <f>2^4</f>
+        <v>16</v>
+      </c>
+      <c r="D2">
+        <f>2^3</f>
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <f>2^2</f>
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <f>2^1</f>
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <f>2^0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>15</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>16</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>17</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>18</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>19</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>20</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>21</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>22</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>23</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>24</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>25</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>26</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>27</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>28</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>29</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>30</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>31</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>32</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>33</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" s="4">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>34</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>35</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H3:H34"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>